--- a/biology/Zoologie/Gigantorhynchidae/Gigantorhynchidae.xlsx
+++ b/biology/Zoologie/Gigantorhynchidae/Gigantorhynchidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Gigantorhynchidae sont une famille d'acanthocéphales.
 </t>
@@ -511,7 +523,9 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>La famille des Gigantorhynchidae comprend deux genres composés des espèces suivantes :
 Gigantorhynchus Hamann, 1892
@@ -520,7 +534,7 @@
 Gigantorhynchus lutzi Machado Filho, 1941
 Gigantorhynchus ortizi Sarmiento, 1954
 Gigantorhynchus pasteri Tadros, 1966
-Gigantorhynchus ungriai Antonio, 1958[1]
+Gigantorhynchus ungriai Antonio, 1958
 Mediorhynchus Van Cleve, 1916
 Mediorhynchus africanus Amin, Evans, Heckmann, El-Naggar 2013
 Mediorhynchus alecturae Johnston et Edmonds, 1947
@@ -584,7 +598,7 @@
 Mediorhynchus vaginatus Diesing, 1851
 Mediorhynchus vancleavei Lundström, 1942
 Mediorhynchus wardi Schmidt, Canaris, 1967
-Mediorhynchus zosteropis Porta, 1913[2]</t>
+Mediorhynchus zosteropis Porta, 1913</t>
         </is>
       </c>
     </row>
